--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/OHIO_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/OHIO_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D989"/>
+  <dimension ref="A1:D983"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C6">
@@ -452,14 +452,14 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="8">
@@ -516,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="12">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C24">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C27">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C36">
@@ -1012,7 +1012,7 @@
         <v>5</v>
       </c>
       <c r="D48">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="49">
@@ -1070,14 +1070,14 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C53">
         <v>5</v>
       </c>
       <c r="D53">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="54">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C55">
@@ -1161,14 +1161,14 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C60">
         <v>5</v>
       </c>
       <c r="D60">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="61">
@@ -1259,7 +1259,7 @@
         <v>5</v>
       </c>
       <c r="D67">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="68">
@@ -1465,7 +1465,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C83">
@@ -1691,7 +1691,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C100">
@@ -1826,7 +1826,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1883,14 +1883,14 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C114">
         <v>5</v>
       </c>
       <c r="D114">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="115">
@@ -2070,7 +2070,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C128">
@@ -2142,7 +2142,7 @@
         <v>5</v>
       </c>
       <c r="D133">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="134">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C145">
@@ -2324,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="D147">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="148">
@@ -2369,12 +2369,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C151">
@@ -2400,7 +2400,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C153">
@@ -2413,7 +2413,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C154">
@@ -2485,7 +2485,7 @@
         <v>5</v>
       </c>
       <c r="D159">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="160">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C166">
@@ -2621,20 +2621,20 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C170">
         <v>5</v>
       </c>
       <c r="D170">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C171">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C177">
@@ -2784,7 +2784,7 @@
         <v>5</v>
       </c>
       <c r="D182">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="183">
@@ -2803,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C184">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C185">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C186">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C187">
@@ -2914,7 +2914,7 @@
         <v>5</v>
       </c>
       <c r="D192">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="193">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C195">
@@ -2959,14 +2959,14 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C196">
         <v>49</v>
       </c>
       <c r="D196">
-        <v>0.009492444788841535</v>
+        <v>0.009492444788841536</v>
       </c>
     </row>
     <row r="197">
@@ -2992,7 +2992,7 @@
         <v>5</v>
       </c>
       <c r="D198">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="199">
@@ -3044,7 +3044,7 @@
         <v>5</v>
       </c>
       <c r="D202">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="203">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C204">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C209">
@@ -3224,7 +3224,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C216">
@@ -3237,7 +3237,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C217">
@@ -3250,7 +3250,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C218">
@@ -3341,14 +3341,14 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C225">
         <v>5</v>
       </c>
       <c r="D225">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="226">
@@ -3471,7 +3471,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C235">
@@ -3523,7 +3523,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C239">
@@ -3549,7 +3549,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C241">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C243">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C245">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C246">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C251">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C256">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C260">
@@ -3814,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C261">
@@ -3834,13 +3834,13 @@
         <v>5</v>
       </c>
       <c r="D262">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C263">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C264">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C266">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C267">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C268">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C272">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C274">
@@ -3996,14 +3996,14 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C275">
         <v>5</v>
       </c>
       <c r="D275">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="276">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C279">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C280">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C282">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C293">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C295">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C297">
@@ -4308,7 +4308,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C299">
@@ -4430,7 +4430,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C308">
@@ -4463,7 +4463,7 @@
         <v>5</v>
       </c>
       <c r="D310">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="311">
@@ -4482,7 +4482,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C312">
@@ -4508,7 +4508,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C314">
@@ -4521,7 +4521,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C315">
@@ -4560,7 +4560,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C318">
@@ -4625,7 +4625,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C323">
@@ -4638,7 +4638,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C324">
@@ -4651,7 +4651,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C325">
@@ -4664,7 +4664,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C326">
@@ -4690,7 +4690,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C328">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C335">
@@ -4801,13 +4801,13 @@
         <v>5</v>
       </c>
       <c r="D336">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C337">
@@ -4820,7 +4820,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C338">
@@ -4846,7 +4846,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C340">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C344">
@@ -4911,14 +4911,14 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C345">
         <v>5</v>
       </c>
       <c r="D345">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="346">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C347">
@@ -5020,7 +5020,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C353">
@@ -5033,7 +5033,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C354">
@@ -5046,7 +5046,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C355">
@@ -5118,13 +5118,13 @@
         <v>5</v>
       </c>
       <c r="D360">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C361">
@@ -5137,7 +5137,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C362">
@@ -5176,7 +5176,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C365">
@@ -5202,7 +5202,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C367">
@@ -5235,13 +5235,13 @@
         <v>5</v>
       </c>
       <c r="D369">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C370">
@@ -5280,7 +5280,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C373">
@@ -5293,7 +5293,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C374">
@@ -5319,7 +5319,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C376">
@@ -5358,7 +5358,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C379">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C380">
@@ -5410,7 +5410,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C383">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C387">
@@ -5475,7 +5475,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C388">
@@ -5508,7 +5508,7 @@
         <v>5</v>
       </c>
       <c r="D390">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="391">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C393">
@@ -5916,7 +5916,7 @@
         <v>5</v>
       </c>
       <c r="D421">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="422">
@@ -5994,7 +5994,7 @@
         <v>5</v>
       </c>
       <c r="D427">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="428">
@@ -6273,7 +6273,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C449">
@@ -6345,7 +6345,7 @@
         <v>5</v>
       </c>
       <c r="D454">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="455">
@@ -6616,7 +6616,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C475">
@@ -6642,7 +6642,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C477">
@@ -6694,20 +6694,20 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C481">
         <v>5</v>
       </c>
       <c r="D481">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C482">
@@ -6829,7 +6829,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C491">
@@ -6894,7 +6894,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C496">
@@ -7029,7 +7029,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C506">
@@ -7081,7 +7081,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C510">
@@ -7145,7 +7145,7 @@
         <v>5</v>
       </c>
       <c r="D514">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="515">
@@ -7158,13 +7158,13 @@
         <v>5</v>
       </c>
       <c r="D515">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C516">
@@ -7190,20 +7190,20 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C518">
         <v>5</v>
       </c>
       <c r="D518">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C519">
@@ -7216,7 +7216,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C520">
@@ -7229,7 +7229,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C521">
@@ -7242,7 +7242,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C522">
@@ -7255,14 +7255,14 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C523">
         <v>5</v>
       </c>
       <c r="D523">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="524">
@@ -7320,7 +7320,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C528">
@@ -7346,7 +7346,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C530">
@@ -7372,7 +7372,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C532">
@@ -7385,7 +7385,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C533">
@@ -7398,7 +7398,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C534">
@@ -7424,14 +7424,14 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C536">
         <v>5</v>
       </c>
       <c r="D536">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="537">
@@ -7489,7 +7489,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C541">
@@ -7502,7 +7502,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C542">
@@ -7658,7 +7658,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C554">
@@ -7860,7 +7860,7 @@
         <v>5</v>
       </c>
       <c r="D569">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="570">
@@ -8087,7 +8087,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C587">
@@ -8204,7 +8204,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C596">
@@ -8263,7 +8263,7 @@
         <v>5</v>
       </c>
       <c r="D600">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="601">
@@ -8295,7 +8295,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C603">
@@ -8308,7 +8308,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C604">
@@ -8380,7 +8380,7 @@
         <v>5</v>
       </c>
       <c r="D609">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="610">
@@ -8484,7 +8484,7 @@
         <v>5</v>
       </c>
       <c r="D617">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="618">
@@ -8503,7 +8503,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C619">
@@ -8633,7 +8633,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C629">
@@ -8997,7 +8997,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C657">
@@ -9095,13 +9095,13 @@
         <v>5</v>
       </c>
       <c r="D664">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C665">
@@ -9114,7 +9114,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C666">
@@ -9127,7 +9127,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C667">
@@ -9140,7 +9140,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C668">
@@ -9153,14 +9153,14 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C669">
         <v>5</v>
       </c>
       <c r="D669">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="670">
@@ -9179,7 +9179,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C671">
@@ -9192,7 +9192,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C672">
@@ -9205,7 +9205,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C673">
@@ -9218,7 +9218,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C674">
@@ -9231,14 +9231,14 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C675">
         <v>49</v>
       </c>
       <c r="D675">
-        <v>0.009492444788841535</v>
+        <v>0.009492444788841536</v>
       </c>
     </row>
     <row r="676">
@@ -9399,7 +9399,7 @@
         <v>5</v>
       </c>
       <c r="D687">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="688">
@@ -9457,7 +9457,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C692">
@@ -9548,7 +9548,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C699">
@@ -9574,7 +9574,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C701">
@@ -9600,7 +9600,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C703">
@@ -9652,7 +9652,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C707">
@@ -9717,7 +9717,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C712">
@@ -9873,7 +9873,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C724">
@@ -9886,7 +9886,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C725">
@@ -9912,7 +9912,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C727">
@@ -9938,7 +9938,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C729">
@@ -10003,7 +10003,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C734">
@@ -10255,7 +10255,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C753">
@@ -10281,14 +10281,14 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C755">
         <v>5</v>
       </c>
       <c r="D755">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="756">
@@ -10320,7 +10320,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C758">
@@ -10333,20 +10333,20 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C759">
         <v>5</v>
       </c>
       <c r="D759">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C760">
@@ -10405,7 +10405,7 @@
         <v>49</v>
       </c>
       <c r="D764">
-        <v>0.009492444788841535</v>
+        <v>0.009492444788841536</v>
       </c>
     </row>
     <row r="765">
@@ -10473,7 +10473,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C769">
@@ -10506,7 +10506,7 @@
         <v>5</v>
       </c>
       <c r="D771">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="772">
@@ -10538,14 +10538,14 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C774">
         <v>5</v>
       </c>
       <c r="D774">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="775">
@@ -10590,7 +10590,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C778">
@@ -10655,7 +10655,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C783">
@@ -10681,7 +10681,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C785">
@@ -10694,7 +10694,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C786">
@@ -10720,7 +10720,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C788">
@@ -10733,7 +10733,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C789">
@@ -10746,7 +10746,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C790">
@@ -10759,7 +10759,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C791">
@@ -10772,7 +10772,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C792">
@@ -10836,7 +10836,7 @@
         <v>5</v>
       </c>
       <c r="D796">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="797">
@@ -11080,7 +11080,7 @@
         <v>5</v>
       </c>
       <c r="D814">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="815">
@@ -11145,7 +11145,7 @@
         <v>5</v>
       </c>
       <c r="D819">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="820">
@@ -11254,7 +11254,7 @@
         <v>5</v>
       </c>
       <c r="D827">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="828">
@@ -11371,7 +11371,7 @@
         <v>5</v>
       </c>
       <c r="D836">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="837">
@@ -11403,7 +11403,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C839">
@@ -11577,7 +11577,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C852">
@@ -11725,7 +11725,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C863">
@@ -11816,7 +11816,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C870">
@@ -11836,7 +11836,7 @@
         <v>5</v>
       </c>
       <c r="D871">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="872">
@@ -11946,7 +11946,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C880">
@@ -12102,7 +12102,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C892">
@@ -12115,7 +12115,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C893">
@@ -12141,7 +12141,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C895">
@@ -12154,7 +12154,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C896">
@@ -12291,7 +12291,7 @@
         <v>5</v>
       </c>
       <c r="D906">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="907">
@@ -12310,7 +12310,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C908">
@@ -12336,14 +12336,14 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C910">
         <v>5</v>
       </c>
       <c r="D910">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="911">
@@ -12492,7 +12492,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C922">
@@ -12505,14 +12505,14 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C923">
         <v>5</v>
       </c>
       <c r="D923">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="924">
@@ -12531,7 +12531,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C925">
@@ -12609,7 +12609,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C931">
@@ -12622,14 +12622,14 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C932">
         <v>5</v>
       </c>
       <c r="D932">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="933">
@@ -12830,7 +12830,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C948">
@@ -12967,13 +12967,13 @@
         <v>5</v>
       </c>
       <c r="D958">
-        <v>0.0009686168151879117</v>
+        <v>0.0009686168151879116</v>
       </c>
     </row>
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C959">
@@ -13165,7 +13165,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C973">
@@ -13217,7 +13217,7 @@
     <row r="977">
       <c r="B977" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C977">
@@ -13230,7 +13230,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C978">
@@ -13243,7 +13243,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C979">
@@ -13303,41 +13303,6 @@
       </c>
       <c r="D983">
         <v>1</v>
-      </c>
-    </row>
-    <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="986">
-      <c r="A986" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="987">
-      <c r="A987" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="988">
-      <c r="A988" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="989">
-      <c r="A989" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
       </c>
     </row>
   </sheetData>
